--- a/resources/WordCategories.xlsx
+++ b/resources/WordCategories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="0" windowWidth="18380" windowHeight="14360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3800" yWindow="0" windowWidth="21680" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="1037">
   <si>
     <t>Nouns</t>
   </si>
@@ -109,9 +109,6 @@
     <t>highly</t>
   </si>
   <si>
-    <t xml:space="preserve"> cool</t>
-  </si>
-  <si>
     <t>Around</t>
   </si>
   <si>
@@ -1927,9 +1924,6 @@
     <t>bottom</t>
   </si>
   <si>
-    <t xml:space="preserve">arrive </t>
-  </si>
-  <si>
     <t>sugar</t>
   </si>
   <si>
@@ -2014,9 +2008,6 @@
     <t>gray</t>
   </si>
   <si>
-    <t xml:space="preserve">sent  </t>
-  </si>
-  <si>
     <t>fall</t>
   </si>
   <si>
@@ -3137,13 +3128,16 @@
   </si>
   <si>
     <t>pizza</t>
+  </si>
+  <si>
+    <t>sent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3170,6 +3164,18 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3224,8 +3230,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3252,7 +3260,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3584,7 +3594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="E195" sqref="E195"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -3745,1367 +3757,1367 @@
         <v>28</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="N5" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="K9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="H10" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="K13" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="K15" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="K16" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>366</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5113,33 +5125,33 @@
         <v>22</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -5149,514 +5161,514 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>387</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>388</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>447</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>448</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B132" s="7" t="b">
         <v>1</v>
@@ -5664,1142 +5676,1142 @@
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B133" s="8" t="s">
         <v>481</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>482</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>522</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>523</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B153" s="8" t="s">
         <v>540</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>541</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B159" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B162" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>567</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B163" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B164" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B166" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>578</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B170" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>590</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>596</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B174" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B175" s="8" t="s">
         <v>604</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>605</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>608</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B177" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="B178" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B179" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>617</v>
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>620</v>
       </c>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B181" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>623</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B182" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>626</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="B184" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B185" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>634</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="8" t="s">
-        <v>635</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
       <c r="E193" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
       <c r="E195" s="7" t="s">
-        <v>664</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
       <c r="E196" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
       <c r="E200" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
       <c r="E201" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
       <c r="E202" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
       <c r="E203" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="8" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
       <c r="E204" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
       <c r="E206" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="8" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
       <c r="E207" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
       <c r="E208" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
       <c r="E209" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
       <c r="E210" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
       <c r="E211" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
       <c r="E212" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
       <c r="E213" s="8" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="7" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
       <c r="E214" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
       <c r="E215" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
       <c r="E216" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
       <c r="E219" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
       <c r="E220" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -6810,337 +6822,337 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
       <c r="E222" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
       <c r="E223" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
       <c r="E224" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="7" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
       <c r="E225" s="7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
       <c r="E226" s="7" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
       <c r="E227" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
       <c r="E228" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="7" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
       <c r="E229" s="7" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
       <c r="E230" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
       <c r="E231" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
       <c r="E232" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
       <c r="E233" s="7" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
       <c r="E234" s="7" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="7" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
       <c r="E235" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
       <c r="E236" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
       <c r="E237" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="7" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
       <c r="E238" s="7" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="7" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
       <c r="E239" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="7" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
       <c r="E240" s="7" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
       <c r="E241" s="7" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
       <c r="E242" s="7" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
       <c r="E243" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
       <c r="E244" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
       <c r="E246" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="8" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="7" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
       <c r="E248" s="7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="7" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
       <c r="E249" s="7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
       <c r="E250" s="11" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="7" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
       <c r="E251" s="11" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -7149,7 +7161,7 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="7" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -7158,7 +7170,7 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="8" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -7167,7 +7179,7 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -7176,7 +7188,7 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -7185,7 +7197,7 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="8" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -7194,7 +7206,7 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -7203,7 +7215,7 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -7212,7 +7224,7 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="7" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -7221,7 +7233,7 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="8" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -7230,7 +7242,7 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="8" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -7239,7 +7251,7 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="8" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -7248,7 +7260,7 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="7" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -7257,7 +7269,7 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="8" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -7266,7 +7278,7 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="7" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -7275,7 +7287,7 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -7284,7 +7296,7 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
@@ -7293,7 +7305,7 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="7" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -7302,7 +7314,7 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="7" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -7311,7 +7323,7 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="7" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -7320,7 +7332,7 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -7329,7 +7341,7 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="7" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -7338,7 +7350,7 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="7" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -7347,7 +7359,7 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="7" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -7356,7 +7368,7 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="7" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -7365,7 +7377,7 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="7" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -7374,7 +7386,7 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="7" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
@@ -7383,7 +7395,7 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="8" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -7392,7 +7404,7 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="8" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
@@ -7401,7 +7413,7 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="7" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -7410,7 +7422,7 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="7" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -7419,7 +7431,7 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="7" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
@@ -7428,7 +7440,7 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="7" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
@@ -7437,7 +7449,7 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="7" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -7446,7 +7458,7 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="7" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -7455,7 +7467,7 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="7" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -7464,7 +7476,7 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="7" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -7473,7 +7485,7 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="7" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -7482,7 +7494,7 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -7491,7 +7503,7 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -7500,7 +7512,7 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="7" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -7509,7 +7521,7 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="7" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -7518,7 +7530,7 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="7" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
@@ -7527,7 +7539,7 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="7" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -7536,7 +7548,7 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="7" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
@@ -7545,7 +7557,7 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="7" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -7554,7 +7566,7 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="7" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
@@ -7572,7 +7584,7 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -7581,7 +7593,7 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -7590,7 +7602,7 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
@@ -7599,7 +7611,7 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -7608,7 +7620,7 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -7617,7 +7629,7 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -7626,7 +7638,7 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -7635,7 +7647,7 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -7644,7 +7656,7 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -7653,7 +7665,7 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -7662,7 +7674,7 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
@@ -7671,7 +7683,7 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -7680,7 +7692,7 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -7689,7 +7701,7 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -7698,7 +7710,7 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="7" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
@@ -7707,7 +7719,7 @@
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="7" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -7716,7 +7728,7 @@
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="7" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -7725,7 +7737,7 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="7" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -7734,7 +7746,7 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="7" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -7743,7 +7755,7 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="7" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -7752,7 +7764,7 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="7" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -7761,7 +7773,7 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="7" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -7770,7 +7782,7 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="7" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -7779,7 +7791,7 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="7" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -7788,7 +7800,7 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="7" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -7797,7 +7809,7 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -7806,7 +7818,7 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="7" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -7815,7 +7827,7 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="7" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -7824,7 +7836,7 @@
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -7833,7 +7845,7 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="7" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -7842,7 +7854,7 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="7" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -7851,7 +7863,7 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="7" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -7860,7 +7872,7 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="7" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -7869,7 +7881,7 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="7" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -7878,7 +7890,7 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="7" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -7887,7 +7899,7 @@
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="7" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -7896,7 +7908,7 @@
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="7" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -7905,7 +7917,7 @@
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="11" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -7914,7 +7926,7 @@
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="7" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -7923,7 +7935,7 @@
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -7932,7 +7944,7 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="7" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -7941,7 +7953,7 @@
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="7" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -7950,7 +7962,7 @@
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="7" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -7959,7 +7971,7 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="7" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -7968,7 +7980,7 @@
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="8" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -7977,7 +7989,7 @@
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="7" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -7986,7 +7998,7 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="7" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -7995,7 +8007,7 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="8" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -8004,7 +8016,7 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="7" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
@@ -8013,7 +8025,7 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -8022,7 +8034,7 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="8" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
@@ -8031,7 +8043,7 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="7" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -8040,7 +8052,7 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="7" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
@@ -8049,7 +8061,7 @@
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -8058,7 +8070,7 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="7" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
@@ -8067,7 +8079,7 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="7" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -8076,7 +8088,7 @@
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="7" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -8085,7 +8097,7 @@
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="7" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -8094,7 +8106,7 @@
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="7" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -8103,7 +8115,7 @@
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="7" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -8112,7 +8124,7 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="7" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -8121,7 +8133,7 @@
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="7" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -8130,7 +8142,7 @@
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -8139,7 +8151,7 @@
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="7" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -8148,7 +8160,7 @@
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -8157,7 +8169,7 @@
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="7" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -8166,7 +8178,7 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="7" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -8175,7 +8187,7 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -8184,7 +8196,7 @@
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="7" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -8193,7 +8205,7 @@
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="7" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -8202,7 +8214,7 @@
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="7" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -8211,7 +8223,7 @@
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="7" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -8220,7 +8232,7 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="7" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -8229,7 +8241,7 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="7" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -8238,7 +8250,7 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="11" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -8247,7 +8259,7 @@
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="7" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -8256,7 +8268,7 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -8265,7 +8277,7 @@
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="7" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -8274,7 +8286,7 @@
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="8" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -8283,7 +8295,7 @@
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="8" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -8292,7 +8304,7 @@
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="8" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -8301,7 +8313,7 @@
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -8310,7 +8322,7 @@
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -8319,7 +8331,7 @@
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -8328,7 +8340,7 @@
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="7" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -8337,7 +8349,7 @@
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -8346,7 +8358,7 @@
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="7" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -8355,7 +8367,7 @@
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="8" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -8364,7 +8376,7 @@
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="7" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
@@ -8373,7 +8385,7 @@
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="7" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -8382,7 +8394,7 @@
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="11" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -8391,7 +8403,7 @@
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="7" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -8400,7 +8412,7 @@
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="7" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -8409,7 +8421,7 @@
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -8418,7 +8430,7 @@
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="7" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -8427,7 +8439,7 @@
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="7" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -8436,7 +8448,7 @@
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="7" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
@@ -8445,7 +8457,7 @@
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="7" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -8454,7 +8466,7 @@
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="7" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -8463,7 +8475,7 @@
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="7" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -8472,7 +8484,7 @@
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
@@ -8481,7 +8493,7 @@
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="7" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -8490,7 +8502,7 @@
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="7" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -8499,7 +8511,7 @@
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="8" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -8508,7 +8520,7 @@
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -8517,7 +8529,7 @@
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="7" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -8526,7 +8538,7 @@
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="7" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -8535,7 +8547,7 @@
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="8" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -8544,7 +8556,7 @@
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="7" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -8553,7 +8565,7 @@
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="7" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -8562,7 +8574,7 @@
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="7" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -8571,7 +8583,7 @@
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="7" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -8580,7 +8592,7 @@
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -8589,7 +8601,7 @@
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="7" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -8598,7 +8610,7 @@
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="8" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -8607,7 +8619,7 @@
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="7" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -8616,7 +8628,7 @@
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="7" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -8625,7 +8637,7 @@
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="7" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -8634,7 +8646,7 @@
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="8" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -8643,7 +8655,7 @@
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="8" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -8652,7 +8664,7 @@
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="7" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -8661,7 +8673,7 @@
     </row>
     <row r="421" spans="1:5">
       <c r="A421" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -8670,7 +8682,7 @@
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="7" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -8679,7 +8691,7 @@
     </row>
     <row r="423" spans="1:5">
       <c r="A423" s="7" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -8688,7 +8700,7 @@
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="7" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
@@ -8697,7 +8709,7 @@
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="7" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -8706,7 +8718,7 @@
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="7" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -8715,7 +8727,7 @@
     </row>
     <row r="427" spans="1:5">
       <c r="A427" s="7" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -8724,7 +8736,7 @@
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="7" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -8733,7 +8745,7 @@
     </row>
     <row r="429" spans="1:5">
       <c r="A429" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -8742,7 +8754,7 @@
     </row>
     <row r="430" spans="1:5">
       <c r="A430" s="7" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -8751,7 +8763,7 @@
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -8760,7 +8772,7 @@
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="7" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -8769,7 +8781,7 @@
     </row>
     <row r="433" spans="1:5">
       <c r="A433" s="7" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -8778,7 +8790,7 @@
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="7" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -8787,7 +8799,7 @@
     </row>
     <row r="435" spans="1:5">
       <c r="A435" s="7" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -8796,7 +8808,7 @@
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="7" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -8805,7 +8817,7 @@
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="7" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -8814,7 +8826,7 @@
     </row>
     <row r="438" spans="1:5">
       <c r="A438" s="7" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -8823,7 +8835,7 @@
     </row>
     <row r="439" spans="1:5">
       <c r="A439" s="7" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -8832,7 +8844,7 @@
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="7" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -8841,7 +8853,7 @@
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="7" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -8850,7 +8862,7 @@
     </row>
     <row r="442" spans="1:5">
       <c r="A442" s="7" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -8859,7 +8871,7 @@
     </row>
     <row r="443" spans="1:5">
       <c r="A443" s="7" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -8868,7 +8880,7 @@
     </row>
     <row r="444" spans="1:5">
       <c r="A444" s="8" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -8877,7 +8889,7 @@
     </row>
     <row r="445" spans="1:5">
       <c r="A445" s="7" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -8886,7 +8898,7 @@
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="7" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -8895,7 +8907,7 @@
     </row>
     <row r="447" spans="1:5">
       <c r="A447" s="7" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -8904,7 +8916,7 @@
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="7" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
@@ -8913,7 +8925,7 @@
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="7" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -8922,7 +8934,7 @@
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="7" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -8931,7 +8943,7 @@
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="7" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -8940,7 +8952,7 @@
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="7" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -8949,7 +8961,7 @@
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="7" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -8958,7 +8970,7 @@
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -8967,7 +8979,7 @@
     </row>
     <row r="455" spans="1:5">
       <c r="A455" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -8976,7 +8988,7 @@
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -8985,7 +8997,7 @@
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -8994,7 +9006,7 @@
     </row>
     <row r="458" spans="1:5">
       <c r="A458" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
@@ -9003,7 +9015,7 @@
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -9012,7 +9024,7 @@
     </row>
     <row r="460" spans="1:5">
       <c r="A460" s="7" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -9021,7 +9033,7 @@
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="7" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -9030,7 +9042,7 @@
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="7" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -9039,7 +9051,7 @@
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="7" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -9048,7 +9060,7 @@
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="7" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -9057,7 +9069,7 @@
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="7" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -9066,7 +9078,7 @@
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
@@ -9075,7 +9087,7 @@
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="7" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -9084,7 +9096,7 @@
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="7" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -9093,7 +9105,7 @@
     </row>
     <row r="469" spans="1:5">
       <c r="A469" s="7" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -9102,7 +9114,7 @@
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="7" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -9111,7 +9123,7 @@
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="7" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -9120,7 +9132,7 @@
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="7" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -9129,7 +9141,7 @@
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="7" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -9138,7 +9150,7 @@
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="7" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -9147,7 +9159,7 @@
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="7" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -9156,7 +9168,7 @@
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="7" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -9165,7 +9177,7 @@
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="7" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -9174,7 +9186,7 @@
     </row>
     <row r="478" spans="1:5">
       <c r="A478" s="7" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -9183,7 +9195,7 @@
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="7" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -9192,7 +9204,7 @@
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="7" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -9201,7 +9213,7 @@
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="7" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -12843,6 +12855,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -12855,8 +12868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -12906,19 +12919,19 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F2" s="9">
         <f>COUNTA(A2:E98)</f>
@@ -12927,753 +12940,753 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="9" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="9" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="9" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="9" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="9" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="9" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="9" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="9" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="9" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="9" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="9" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="9" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="9" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="9" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="9" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="9" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="9" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="9" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="9" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="9" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="9" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="9" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="9" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="9" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="9" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="9" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="9" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="9" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="9" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="9" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="9" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
   </sheetData>

--- a/resources/WordCategories.xlsx
+++ b/resources/WordCategories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="0" windowWidth="21680" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="3800" yWindow="0" windowWidth="21680" windowHeight="14400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1064">
   <si>
     <t>Nouns</t>
   </si>
@@ -3131,6 +3131,87 @@
   </si>
   <si>
     <t>sent</t>
+  </si>
+  <si>
+    <t>Letters</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -3230,8 +3311,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -3260,9 +3345,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3594,8 +3683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="E195" sqref="E195"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -12866,18 +12955,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z70"/>
+  <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="26" width="10.5" customWidth="1"/>
+    <col min="1" max="27" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="24" customHeight="1">
+    <row r="1" spans="1:27" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12893,12 +12982,14 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -12916,8 +13007,9 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="5"/>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -12933,12 +13025,16 @@
       <c r="E2" s="9" t="s">
         <v>989</v>
       </c>
-      <c r="F2" s="9">
-        <f>COUNTA(A2:E98)</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="F2" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G2" s="9">
+        <f>COUNTA(A2:F98)</f>
+        <v>236</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="9" t="s">
         <v>122</v>
       </c>
@@ -12954,8 +13050,11 @@
       <c r="E3" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="F3" s="9" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="9" t="s">
         <v>198</v>
       </c>
@@ -12971,8 +13070,11 @@
       <c r="E4" s="9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="F4" s="9" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="9" t="s">
         <v>290</v>
       </c>
@@ -12988,8 +13090,11 @@
       <c r="E5" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="F5" s="9" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="9" t="s">
         <v>305</v>
       </c>
@@ -13005,8 +13110,11 @@
       <c r="E6" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="F6" s="9" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="9" t="s">
         <v>310</v>
       </c>
@@ -13022,8 +13130,11 @@
       <c r="E7" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="F7" s="9" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="9" t="s">
         <v>355</v>
       </c>
@@ -13039,8 +13150,11 @@
       <c r="E8" s="9" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="F8" s="9" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="9" t="s">
         <v>358</v>
       </c>
@@ -13056,8 +13170,11 @@
       <c r="E9" s="9" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="F9" s="9" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="9" t="s">
         <v>389</v>
       </c>
@@ -13073,8 +13190,11 @@
       <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="F10" s="9" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="9" t="s">
         <v>395</v>
       </c>
@@ -13090,8 +13210,11 @@
       <c r="E11" s="9" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="F11" s="9" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="9" t="s">
         <v>413</v>
       </c>
@@ -13107,8 +13230,11 @@
       <c r="E12" s="9" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="F12" s="9" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="9" t="s">
         <v>507</v>
       </c>
@@ -13124,8 +13250,11 @@
       <c r="E13" s="9" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="F13" s="9" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="9" t="s">
         <v>524</v>
       </c>
@@ -13138,8 +13267,11 @@
       <c r="E14" s="9" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="F14" s="9" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="9" t="s">
         <v>539</v>
       </c>
@@ -13152,8 +13284,11 @@
       <c r="E15" s="9" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="F15" s="9" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="9" t="s">
         <v>556</v>
       </c>
@@ -13166,8 +13301,11 @@
       <c r="E16" s="9" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="9" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
         <v>576</v>
       </c>
@@ -13180,8 +13318,11 @@
       <c r="E17" s="9" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="9" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
         <v>609</v>
       </c>
@@ -13194,8 +13335,11 @@
       <c r="E18" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="9" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
         <v>612</v>
       </c>
@@ -13208,8 +13352,11 @@
       <c r="E19" s="9" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="9" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="9" t="s">
         <v>640</v>
       </c>
@@ -13222,8 +13369,11 @@
       <c r="E20" s="9" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="9" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="9" t="s">
         <v>657</v>
       </c>
@@ -13236,8 +13386,11 @@
       <c r="E21" s="9" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="9" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
         <v>1004</v>
       </c>
@@ -13250,8 +13403,11 @@
       <c r="E22" s="9" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="9" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
         <v>786</v>
       </c>
@@ -13264,8 +13420,11 @@
       <c r="E23" s="9" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="9" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="9" t="s">
         <v>789</v>
       </c>
@@ -13278,8 +13437,11 @@
       <c r="E24" s="9" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="9" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
         <v>792</v>
       </c>
@@ -13289,8 +13451,11 @@
       <c r="C25" s="9" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
         <v>793</v>
       </c>
@@ -13300,8 +13465,11 @@
       <c r="C26" s="9" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="9" t="s">
         <v>1010</v>
       </c>
@@ -13311,8 +13479,11 @@
       <c r="C27" s="9" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
         <v>796</v>
       </c>
@@ -13323,7 +13494,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="9" t="s">
         <v>810</v>
       </c>
@@ -13334,7 +13505,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="9" t="s">
         <v>811</v>
       </c>
@@ -13345,7 +13516,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="9" t="s">
         <v>822</v>
       </c>
@@ -13356,7 +13527,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
@@ -13691,6 +13862,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/resources/WordCategories.xlsx
+++ b/resources/WordCategories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="0" windowWidth="21680" windowHeight="14400" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="21680" windowHeight="14400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1038">
   <si>
     <t>Nouns</t>
   </si>
@@ -3133,85 +3133,7 @@
     <t>sent</t>
   </si>
   <si>
-    <t>Letters</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
+    <t>eleven</t>
   </si>
 </sst>
 </file>
@@ -3683,8 +3605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E175" sqref="E175"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A481" sqref="A481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -9310,7 +9232,9 @@
       <c r="E481" s="9"/>
     </row>
     <row r="482" spans="1:5">
-      <c r="A482" s="9"/>
+      <c r="A482" s="7" t="s">
+        <v>1037</v>
+      </c>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
       <c r="D482" s="9"/>
@@ -12955,18 +12879,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:Z70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="27" width="10.5" customWidth="1"/>
+    <col min="1" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="24" customHeight="1">
+    <row r="1" spans="1:26" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12982,14 +12906,12 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="12"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -13007,9 +12929,8 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-    </row>
-    <row r="2" spans="1:27">
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -13025,16 +12946,13 @@
       <c r="E2" s="9" t="s">
         <v>989</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G2" s="9">
-        <f>COUNTA(A2:F98)</f>
-        <v>236</v>
-      </c>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="F2" s="9">
+        <f>COUNTA(A2:E98)</f>
+        <v>210</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="9" t="s">
         <v>122</v>
       </c>
@@ -13050,11 +12968,8 @@
       <c r="E3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="9" t="s">
         <v>198</v>
       </c>
@@ -13070,11 +12985,8 @@
       <c r="E4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="9" t="s">
         <v>290</v>
       </c>
@@ -13090,11 +13002,8 @@
       <c r="E5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="9" t="s">
         <v>305</v>
       </c>
@@ -13110,11 +13019,8 @@
       <c r="E6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="9" t="s">
         <v>310</v>
       </c>
@@ -13130,11 +13036,8 @@
       <c r="E7" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="9" t="s">
         <v>355</v>
       </c>
@@ -13150,11 +13053,8 @@
       <c r="E8" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="9" t="s">
         <v>358</v>
       </c>
@@ -13170,11 +13070,8 @@
       <c r="E9" s="9" t="s">
         <v>992</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="9" t="s">
         <v>389</v>
       </c>
@@ -13190,11 +13087,8 @@
       <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="9" t="s">
         <v>395</v>
       </c>
@@ -13210,11 +13104,8 @@
       <c r="E11" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="9" t="s">
         <v>413</v>
       </c>
@@ -13230,11 +13121,8 @@
       <c r="E12" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="9" t="s">
         <v>507</v>
       </c>
@@ -13250,11 +13138,8 @@
       <c r="E13" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="9" t="s">
         <v>524</v>
       </c>
@@ -13267,11 +13152,8 @@
       <c r="E14" s="9" t="s">
         <v>996</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="9" t="s">
         <v>539</v>
       </c>
@@ -13284,11 +13166,8 @@
       <c r="E15" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="9" t="s">
         <v>556</v>
       </c>
@@ -13301,11 +13180,8 @@
       <c r="E16" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="9" t="s">
         <v>576</v>
       </c>
@@ -13318,11 +13194,8 @@
       <c r="E17" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
         <v>609</v>
       </c>
@@ -13335,11 +13208,8 @@
       <c r="E18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
         <v>612</v>
       </c>
@@ -13352,11 +13222,8 @@
       <c r="E19" s="9" t="s">
         <v>1000</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
         <v>640</v>
       </c>
@@ -13369,11 +13236,8 @@
       <c r="E20" s="9" t="s">
         <v>1001</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
         <v>657</v>
       </c>
@@ -13386,11 +13250,8 @@
       <c r="E21" s="9" t="s">
         <v>1003</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
         <v>1004</v>
       </c>
@@ -13403,11 +13264,8 @@
       <c r="E22" s="9" t="s">
         <v>1005</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
         <v>786</v>
       </c>
@@ -13420,11 +13278,8 @@
       <c r="E23" s="9" t="s">
         <v>1007</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
         <v>789</v>
       </c>
@@ -13437,11 +13292,8 @@
       <c r="E24" s="9" t="s">
         <v>1009</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="9" t="s">
         <v>792</v>
       </c>
@@ -13451,11 +13303,8 @@
       <c r="C25" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="F25" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
         <v>793</v>
       </c>
@@ -13465,11 +13314,8 @@
       <c r="C26" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F26" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="9" t="s">
         <v>1010</v>
       </c>
@@ -13479,11 +13325,8 @@
       <c r="C27" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="F27" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="9" t="s">
         <v>796</v>
       </c>
@@ -13494,7 +13337,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" s="9" t="s">
         <v>810</v>
       </c>
@@ -13505,7 +13348,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" s="9" t="s">
         <v>811</v>
       </c>
@@ -13516,7 +13359,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" s="9" t="s">
         <v>822</v>
       </c>
@@ -13527,7 +13370,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" s="9" t="s">
         <v>33</v>
       </c>

--- a/resources/WordCategories.xlsx
+++ b/resources/WordCategories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="21680" windowHeight="14400" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3920" yWindow="0" windowWidth="21680" windowHeight="14380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="1038">
   <si>
     <t>Nouns</t>
   </si>
@@ -3606,7 +3606,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A481" sqref="A481"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -3703,8 +3703,8 @@
         <v>10</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>COUNTA(K3:K479)</f>
+        <v>13</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" si="0"/>
@@ -3713,7 +3713,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="6">
         <f>SUM(A2:L2)</f>
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3818,7 +3818,7 @@
         <v>43</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>45</v>
@@ -3856,7 +3856,7 @@
         <v>55</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>57</v>
@@ -3890,8 +3890,8 @@
       <c r="J7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>66</v>
+      <c r="K7" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>67</v>
@@ -3923,8 +3923,8 @@
       <c r="J8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>76</v>
+      <c r="K8" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>77</v>
@@ -3956,8 +3956,8 @@
       <c r="J9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>86</v>
+      <c r="K9" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>87</v>
@@ -3989,8 +3989,8 @@
       <c r="J10" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>96</v>
+      <c r="K10" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>97</v>
@@ -4020,7 +4020,7 @@
         <v>104</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>106</v>
@@ -4050,7 +4050,7 @@
         <v>113</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4074,7 +4074,7 @@
         <v>120</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4094,8 +4094,8 @@
       <c r="F14" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>127</v>
+      <c r="K14" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4116,7 +4116,7 @@
         <v>132</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4136,11 +4136,8 @@
       <c r="F16" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
         <v>140</v>
       </c>
@@ -4157,11 +4154,8 @@
       <c r="F17" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
         <v>146</v>
       </c>
@@ -4179,7 +4173,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
         <v>151</v>
       </c>
@@ -4197,7 +4191,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
         <v>156</v>
       </c>
@@ -4215,7 +4209,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
         <v>161</v>
       </c>
@@ -4233,7 +4227,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
         <v>166</v>
       </c>
@@ -4251,7 +4245,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:6">
       <c r="A23" s="7" t="s">
         <v>171</v>
       </c>
@@ -4269,7 +4263,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
         <v>176</v>
       </c>
@@ -4284,7 +4278,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
         <v>180</v>
       </c>
@@ -4299,7 +4293,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:6">
       <c r="A26" s="7" t="s">
         <v>183</v>
       </c>
@@ -4312,7 +4306,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
         <v>186</v>
       </c>
@@ -4325,7 +4319,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:6">
       <c r="A28" s="7" t="s">
         <v>189</v>
       </c>
@@ -4338,7 +4332,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:6">
       <c r="A29" s="7" t="s">
         <v>192</v>
       </c>
@@ -4351,7 +4345,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:6">
       <c r="A30" s="7" t="s">
         <v>195</v>
       </c>
@@ -4364,7 +4358,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
         <v>198</v>
       </c>
@@ -4377,7 +4371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:6">
       <c r="A32" s="7" t="s">
         <v>201</v>
       </c>
@@ -12879,10 +12873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z70"/>
+  <dimension ref="A1:Z68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -12948,7 +12942,7 @@
       </c>
       <c r="F2" s="9">
         <f>COUNTA(A2:E98)</f>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H2" s="9"/>
     </row>
@@ -13394,7 +13388,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="9" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>377</v>
@@ -13405,7 +13399,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="9" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>380</v>
@@ -13416,7 +13410,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="9" t="s">
-        <v>127</v>
+        <v>858</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>383</v>
@@ -13427,7 +13421,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="9" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>387</v>
@@ -13438,7 +13432,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>411</v>
@@ -13449,7 +13443,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="9" t="s">
-        <v>863</v>
+        <v>890</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>341</v>
@@ -13460,7 +13454,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>464</v>
@@ -13471,7 +13465,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="9" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>467</v>
@@ -13482,7 +13476,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="9" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>681</v>
@@ -13493,7 +13487,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="9" t="s">
-        <v>898</v>
+        <v>913</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>693</v>
@@ -13504,7 +13498,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>393</v>
@@ -13515,7 +13509,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="9" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>253</v>
@@ -13526,7 +13520,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="9" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>490</v>
@@ -13537,7 +13531,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="9" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>196</v>
@@ -13548,7 +13542,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="9" t="s">
-        <v>929</v>
+        <v>1019</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>608</v>
@@ -13556,7 +13550,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="9" t="s">
-        <v>1019</v>
+        <v>105</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>233</v>
@@ -13564,7 +13558,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>1020</v>
@@ -13572,7 +13566,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="9" t="s">
-        <v>96</v>
+        <v>649</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>287</v>
@@ -13580,7 +13574,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="9" t="s">
-        <v>44</v>
+        <v>1021</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>599</v>
@@ -13588,7 +13582,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="9" t="s">
-        <v>649</v>
+        <v>1022</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>764</v>
@@ -13596,7 +13590,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="9" t="s">
-        <v>1021</v>
+        <v>802</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>385</v>
@@ -13604,7 +13598,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="9" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>1023</v>
@@ -13612,7 +13606,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>1024</v>
@@ -13620,7 +13614,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>312</v>
@@ -13628,7 +13622,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
-        <v>801</v>
+        <v>1028</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>637</v>
@@ -13636,7 +13630,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="9" t="s">
-        <v>1026</v>
+        <v>928</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>1027</v>
@@ -13644,7 +13638,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="9" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>1029</v>
@@ -13652,7 +13646,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="9" t="s">
-        <v>928</v>
+        <v>1032</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>1030</v>
@@ -13660,46 +13654,36 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="9" t="s">
-        <v>1031</v>
+        <v>935</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="9" t="s">
-        <v>1032</v>
+        <v>787</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="9" t="s">
-        <v>935</v>
+        <v>778</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="9" t="s">
-        <v>787</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="9" t="s">
-        <v>778</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="9" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="9" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="9" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="9" t="s">
         <v>1035</v>
       </c>
     </row>
